--- a/output/ARX_06041290000106.xlsx
+++ b/output/ARX_06041290000106.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>7.294782669269747</v>
+        <v>7.352680476635998</v>
       </c>
       <c r="C192">
-        <v>0.01067128600814704</v>
+        <v>0.01772579891837522</v>
       </c>
     </row>
   </sheetData>

--- a/output/ARX_06041290000106.xlsx
+++ b/output/ARX_06041290000106.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ARX EXTRA FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>0.001085304398770193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>0.03976660026977297</v>
-      </c>
-      <c r="C3">
         <v>0.0386393604031916</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>0.06198235623572246</v>
-      </c>
-      <c r="C4">
         <v>0.02136609885351715</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>0.07884622986622558</v>
-      </c>
-      <c r="C5">
         <v>0.01587961752046274</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>0.09586044718042475</v>
-      </c>
-      <c r="C6">
         <v>0.01577075290545249</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>0.1072465305714565</v>
-      </c>
-      <c r="C7">
         <v>0.01039008517948381</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>0.1387731894376785</v>
-      </c>
-      <c r="C8">
         <v>0.02847302565034981</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>0.170688357104231</v>
-      </c>
-      <c r="C9">
         <v>0.02802592119534553</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>0.1983054177562253</v>
-      </c>
-      <c r="C10">
         <v>0.02359044615452288</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>0.2119724691605092</v>
-      </c>
-      <c r="C11">
         <v>0.01140531554123725</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>0.2461232910947646</v>
-      </c>
-      <c r="C12">
         <v>0.02817788588705361</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>0.2813661385697466</v>
-      </c>
-      <c r="C13">
         <v>0.02828199081651039</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>0.3332090753220367</v>
-      </c>
-      <c r="C14">
         <v>0.04045911249860001</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.3651133536965823</v>
-      </c>
-      <c r="C15">
         <v>0.02393043894247349</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.3674242579589466</v>
-      </c>
-      <c r="C16">
         <v>0.001692829577929711</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.3944250204103514</v>
-      </c>
-      <c r="C17">
         <v>0.01974570971243916</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.3908314572874518</v>
-      </c>
-      <c r="C18">
         <v>-0.002577093117450024</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.4113637123342608</v>
-      </c>
-      <c r="C19">
         <v>0.01476257596794173</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.4497086533824399</v>
-      </c>
-      <c r="C20">
         <v>0.02716871683257338</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.4814000360500321</v>
-      </c>
-      <c r="C21">
         <v>0.02186051838322856</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.4908190726716144</v>
-      </c>
-      <c r="C22">
         <v>0.006358199265808606</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.5273918949533296</v>
-      </c>
-      <c r="C23">
         <v>0.02453203272760329</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.55801310509546</v>
-      </c>
-      <c r="C24">
         <v>0.02004803760142115</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.600908132714999</v>
-      </c>
-      <c r="C25">
         <v>0.02753187856973183</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.6160469058002331</v>
-      </c>
-      <c r="C26">
         <v>0.009456365906243658</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.6181244308753959</v>
-      </c>
-      <c r="C27">
         <v>0.001285559885487286</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.6701668210507268</v>
-      </c>
-      <c r="C28">
         <v>0.03216216823769003</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.6951065151765432</v>
-      </c>
-      <c r="C29">
         <v>0.01493245693273115</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.7335227464768357</v>
-      </c>
-      <c r="C30">
         <v>0.02266301908248614</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.7597368152649622</v>
-      </c>
-      <c r="C31">
         <v>0.01512184875647193</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.7756817532287106</v>
-      </c>
-      <c r="C32">
         <v>0.009060978792642782</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.746151429829168</v>
-      </c>
-      <c r="C33">
         <v>-0.01663041440046775</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.7691555616046661</v>
-      </c>
-      <c r="C34">
         <v>0.01317419061286618</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.7750725706557071</v>
-      </c>
-      <c r="C35">
         <v>0.003344538592001456</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.7718426786247121</v>
-      </c>
-      <c r="C36">
         <v>-0.001819583088820909</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.8142054260396796</v>
-      </c>
-      <c r="C37">
         <v>0.02390886500592093</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.7994553701622786</v>
-      </c>
-      <c r="C38">
         <v>-0.00813031185205948</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.87644317822662</v>
-      </c>
-      <c r="C39">
         <v>0.04278394971107202</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.8026355421176714</v>
-      </c>
-      <c r="C40">
         <v>-0.03933379756199296</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.8361794293027007</v>
-      </c>
-      <c r="C41">
         <v>0.01860824687037033</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.9118729895607416</v>
-      </c>
-      <c r="C42">
         <v>0.04122340063834939</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.9191470812800946</v>
-      </c>
-      <c r="C43">
         <v>0.00380469401423178</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.8825714380539698</v>
-      </c>
-      <c r="C44">
         <v>-0.01905828041159219</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.8550115778182934</v>
-      </c>
-      <c r="C45">
         <v>-0.01463947645150998</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.7599982178181286</v>
-      </c>
-      <c r="C46">
         <v>-0.05121982047783846</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.6409854685710357</v>
-      </c>
-      <c r="C47">
         <v>-0.06762094872722835</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.6645077832721853</v>
-      </c>
-      <c r="C48">
         <v>0.01433426142501593</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.7191337342681829</v>
-      </c>
-      <c r="C49">
         <v>0.03281808084346172</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.721142194585634</v>
-      </c>
-      <c r="C50">
         <v>0.001168297891790182</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.7277985515812551</v>
-      </c>
-      <c r="C51">
         <v>0.003867406781706162</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.7726557953820603</v>
-      </c>
-      <c r="C52">
         <v>0.02596207975736098</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.8889293703922265</v>
-      </c>
-      <c r="C53">
         <v>0.06559286654130503</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.9736821889343672</v>
-      </c>
-      <c r="C54">
         <v>0.04486817764104223</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>1.008752884369139</v>
-      </c>
-      <c r="C55">
         <v>0.01776917055410365</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>1.073891281948712</v>
-      </c>
-      <c r="C56">
         <v>0.03242728266201378</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>1.094626905502359</v>
-      </c>
-      <c r="C57">
         <v>0.009998413964189545</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>1.158189645602223</v>
-      </c>
-      <c r="C58">
         <v>0.03034561426328053</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>1.173283127271284</v>
-      </c>
-      <c r="C59">
         <v>0.006993584507189565</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>1.197251307494708</v>
-      </c>
-      <c r="C60">
         <v>0.01102855855395068</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>1.216013773473207</v>
-      </c>
-      <c r="C61">
         <v>0.008539062379665285</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>1.237544226025856</v>
-      </c>
-      <c r="C62">
         <v>0.009715847803104527</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>1.244177375357446</v>
-      </c>
-      <c r="C63">
         <v>0.002964477418786693</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>1.258109186164311</v>
-      </c>
-      <c r="C64">
         <v>0.006207981133686591</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>1.269151419505553</v>
-      </c>
-      <c r="C65">
         <v>0.004890035171416507</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>1.312897933192281</v>
-      </c>
-      <c r="C66">
         <v>0.01927879881028827</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>1.326766403004629</v>
-      </c>
-      <c r="C67">
         <v>0.005996144323241692</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>1.358390336072654</v>
-      </c>
-      <c r="C68">
         <v>0.01359136569411867</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>1.367910695956088</v>
-      </c>
-      <c r="C69">
         <v>0.004036804144680994</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>1.373009311074092</v>
-      </c>
-      <c r="C70">
         <v>0.002153212588089426</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>1.392345441032664</v>
-      </c>
-      <c r="C71">
         <v>0.008148358233714292</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>1.428642629506041</v>
-      </c>
-      <c r="C72">
         <v>0.01517221879868202</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>1.431801536453051</v>
-      </c>
-      <c r="C73">
         <v>0.001300688256325566</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>1.452572581839003</v>
-      </c>
-      <c r="C74">
         <v>0.008541422922302866</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.476236524324367</v>
-      </c>
-      <c r="C75">
         <v>0.009648620660849261</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.514276721501981</v>
-      </c>
-      <c r="C76">
         <v>0.01536210164252894</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>1.571729236466588</v>
-      </c>
-      <c r="C77">
         <v>0.0228505138170656</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>1.606558871409066</v>
-      </c>
-      <c r="C78">
         <v>0.01354327448185466</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>1.632204940435312</v>
-      </c>
-      <c r="C79">
         <v>0.009839052287502259</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.677160604679184</v>
-      </c>
-      <c r="C80">
         <v>0.01707908968381378</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>1.712193087109744</v>
-      </c>
-      <c r="C81">
         <v>0.01308568577071156</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.750375098149699</v>
-      </c>
-      <c r="C82">
         <v>0.01407791031598138</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.782597800858727</v>
-      </c>
-      <c r="C83">
         <v>0.01171574841944478</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.80666785513526</v>
-      </c>
-      <c r="C84">
         <v>0.0086502096239367</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.823628608481937</v>
-      </c>
-      <c r="C85">
         <v>0.006043021198836707</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.861793865047314</v>
-      </c>
-      <c r="C86">
         <v>0.01351638684022838</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.923337880760228</v>
-      </c>
-      <c r="C87">
         <v>0.02150539787808792</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.979616771203746</v>
-      </c>
-      <c r="C88">
         <v>0.01925158594013854</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>2.051819416477005</v>
-      </c>
-      <c r="C89">
         <v>0.02423219186140169</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>2.115134702440122</v>
-      </c>
-      <c r="C90">
         <v>0.02074673410270367</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>2.155047024212911</v>
-      </c>
-      <c r="C91">
         <v>0.01281239034110615</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>2.182123371599605</v>
-      </c>
-      <c r="C92">
         <v>0.008581915635139881</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>2.207016196366729</v>
-      </c>
-      <c r="C93">
         <v>0.007822708883411522</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>2.205917903714677</v>
-      </c>
-      <c r="C94">
         <v>-0.000342465576973372</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>2.245414281328052</v>
-      </c>
-      <c r="C95">
         <v>0.01231983438116435</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>2.268511593586554</v>
-      </c>
-      <c r="C96">
         <v>0.007116907197761702</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>2.292608859928417</v>
-      </c>
-      <c r="C97">
         <v>0.007372550364865393</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>2.338354373720606</v>
-      </c>
-      <c r="C98">
         <v>0.01389339448997995</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>2.365495498624961</v>
-      </c>
-      <c r="C99">
         <v>0.008130091016702368</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>2.381374497943535</v>
-      </c>
-      <c r="C100">
         <v>0.004718175770866972</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>2.417317855136377</v>
-      </c>
-      <c r="C101">
         <v>0.0106298066702466</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>2.449514365488212</v>
-      </c>
-      <c r="C102">
         <v>0.00942157320936432</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>2.490698784327032</v>
-      </c>
-      <c r="C103">
         <v>0.01193919331105375</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>2.520126846630962</v>
-      </c>
-      <c r="C104">
         <v>0.008430421563745183</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>2.570888319637028</v>
-      </c>
-      <c r="C105">
         <v>0.01442035336159808</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>2.594774513837585</v>
-      </c>
-      <c r="C106">
         <v>0.006689146246664279</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>2.66278548134195</v>
-      </c>
-      <c r="C107">
         <v>0.01891939737598736</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>2.682178164164957</v>
-      </c>
-      <c r="C108">
         <v>0.005294517771186058</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>2.692229457047322</v>
-      </c>
-      <c r="C109">
         <v>0.002729713890594621</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>2.705017192539705</v>
-      </c>
-      <c r="C110">
         <v>0.003463418414577646</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>2.720204122644272</v>
-      </c>
-      <c r="C111">
         <v>0.004099017444546993</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>2.758919679220065</v>
-      </c>
-      <c r="C112">
         <v>0.01040683664106967</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>2.810697436525941</v>
-      </c>
-      <c r="C113">
         <v>0.01377463785462396</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>2.844233069285245</v>
-      </c>
-      <c r="C114">
         <v>0.008800392400053036</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>2.886502070539702</v>
-      </c>
-      <c r="C115">
         <v>0.01099543146646842</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>2.925532664828061</v>
-      </c>
-      <c r="C116">
         <v>0.01004260221143771</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>3.0037752349201</v>
-      </c>
-      <c r="C117">
         <v>0.01993170781460463</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>3.025555888122655</v>
-      </c>
-      <c r="C118">
         <v>0.005440028953820564</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>3.077426997103411</v>
-      </c>
-      <c r="C119">
         <v>0.01288545244988426</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>3.156370404410814</v>
-      </c>
-      <c r="C120">
         <v>0.01936108417477089</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>3.175730129075921</v>
-      </c>
-      <c r="C121">
         <v>0.004657843931465289</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>3.167065445739101</v>
-      </c>
-      <c r="C122">
         <v>-0.002075010373991271</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>3.17940825354297</v>
-      </c>
-      <c r="C123">
         <v>0.00296199038978151</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>3.214162616161411</v>
-      </c>
-      <c r="C124">
         <v>0.008315618027738392</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>3.195216364538187</v>
-      </c>
-      <c r="C125">
         <v>-0.004495852046754178</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>3.238487671903533</v>
-      </c>
-      <c r="C126">
         <v>0.01031443997289738</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>3.279066979558774</v>
-      </c>
-      <c r="C127">
         <v>0.009574006295744786</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>3.370383577506664</v>
-      </c>
-      <c r="C128">
         <v>0.02134030581528923</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>3.406678346964387</v>
-      </c>
-      <c r="C129">
         <v>0.00830471028779356</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>3.449789582481546</v>
-      </c>
-      <c r="C130">
         <v>0.009783159133195163</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>3.475403675842405</v>
-      </c>
-      <c r="C131">
         <v>0.005756248219398907</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>3.51839081957806</v>
-      </c>
-      <c r="C132">
         <v>0.009605199184085533</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>3.568955712207371</v>
-      </c>
-      <c r="C133">
         <v>0.01119090726065908</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>3.666376677551071</v>
-      </c>
-      <c r="C134">
         <v>0.02132237024828454</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>3.639553210339313</v>
-      </c>
-      <c r="C135">
         <v>-0.005748243029929268</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>3.695532433123577</v>
-      </c>
-      <c r="C136">
         <v>0.01206564948097011</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>3.917258775330974</v>
-      </c>
-      <c r="C137">
         <v>0.04722070294803604</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>3.892974552573096</v>
-      </c>
-      <c r="C138">
         <v>-0.004938569204392396</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>4.062250323625218</v>
-      </c>
-      <c r="C139">
         <v>0.03459567778931194</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>4.209784309474006</v>
-      </c>
-      <c r="C140">
         <v>0.02914395306772088</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>4.314714107816153</v>
-      </c>
-      <c r="C141">
         <v>0.02014091027748144</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>4.403900193081364</v>
-      </c>
-      <c r="C142">
         <v>0.01678097512979093</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>4.576528489093466</v>
-      </c>
-      <c r="C143">
         <v>0.03194513033995672</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>4.570091927581758</v>
-      </c>
-      <c r="C144">
         <v>-0.001154223729744497</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>4.694945155667714</v>
-      </c>
-      <c r="C145">
         <v>0.02241493133492334</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>4.973340750457107</v>
-      </c>
-      <c r="C146">
         <v>0.04888468408028968</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>5.08814741204513</v>
-      </c>
-      <c r="C147">
         <v>0.01921984135581711</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>5.165737257282388</v>
-      </c>
-      <c r="C148">
         <v>0.01274440974995938</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>5.244604774486372</v>
-      </c>
-      <c r="C149">
         <v>0.01279125494860045</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>5.225206888918928</v>
-      </c>
-      <c r="C150">
         <v>-0.00310634319832348</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>5.284852252738845</v>
-      </c>
-      <c r="C151">
         <v>0.009581266114398135</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>5.421516700634732</v>
-      </c>
-      <c r="C152">
         <v>0.02174505340779187</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>5.511949405148792</v>
-      </c>
-      <c r="C153">
         <v>0.01408276404624487</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>5.55921196925373</v>
-      </c>
-      <c r="C154">
         <v>0.007257821147622634</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>5.485256393590491</v>
-      </c>
-      <c r="C155">
         <v>-0.01127507023860574</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>5.425846835416554</v>
-      </c>
-      <c r="C156">
         <v>-0.009160710782792236</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>5.441225976783449</v>
-      </c>
-      <c r="C157">
         <v>0.00239332523180158</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>5.52116379304602</v>
-      </c>
-      <c r="C158">
         <v>0.01241034184341561</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>5.523954756547324</v>
-      </c>
-      <c r="C159">
         <v>0.0004279854930617777</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>5.543839251303788</v>
-      </c>
-      <c r="C160">
         <v>0.003047920394682047</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>5.58825621936926</v>
-      </c>
-      <c r="C161">
         <v>0.006787600727909515</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>5.513177282608664</v>
-      </c>
-      <c r="C162">
         <v>-0.01139587384896568</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>5.579235456928128</v>
-      </c>
-      <c r="C163">
         <v>0.01014223495740718</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>5.621290468336242</v>
-      </c>
-      <c r="C164">
         <v>0.006392081828266116</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>5.672252101862234</v>
-      </c>
-      <c r="C165">
         <v>0.007696631611269211</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>5.690196218566444</v>
-      </c>
-      <c r="C166">
         <v>0.002689364315116682</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>5.790802022704971</v>
-      </c>
-      <c r="C167">
         <v>0.01503779573151043</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>5.821576777074585</v>
-      </c>
-      <c r="C168">
         <v>0.004531829122203845</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>5.826551285524836</v>
-      </c>
-      <c r="C169">
         <v>0.0007292314684441692</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>5.973308625929217</v>
-      </c>
-      <c r="C170">
         <v>0.02149802063533435</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>5.937764004390581</v>
-      </c>
-      <c r="C171">
         <v>-0.005097239122110353</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>5.816542693851113</v>
-      </c>
-      <c r="C172">
         <v>-0.01747267714248468</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>5.807749646378987</v>
-      </c>
-      <c r="C173">
         <v>-0.001289957074582349</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>5.883024523407583</v>
-      </c>
-      <c r="C174">
         <v>0.01105723343816467</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>5.960706931348462</v>
-      </c>
-      <c r="C175">
         <v>0.01128608617864124</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>6.041945984511795</v>
-      </c>
-      <c r="C176">
         <v>0.01167109231354968</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>6.1186603544897</v>
-      </c>
-      <c r="C177">
         <v>0.01089391627635772</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>6.18033667175109</v>
-      </c>
-      <c r="C178">
         <v>0.008664034269101117</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>6.249763835223233</v>
-      </c>
-      <c r="C179">
         <v>0.009669067990263347</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>6.314916545932356</v>
-      </c>
-      <c r="C180">
         <v>0.008986873529945427</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>6.572419876600578</v>
-      </c>
-      <c r="C181">
         <v>0.03520249739710479</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>6.519568470829824</v>
-      </c>
-      <c r="C182">
         <v>-0.006979460546564509</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>6.442667047675278</v>
-      </c>
-      <c r="C183">
         <v>-0.0102268399380715</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>5.975340413000701</v>
-      </c>
-      <c r="C184">
         <v>-0.06279021104679761</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>6.40465657089615</v>
-      </c>
-      <c r="C185">
         <v>0.06154769982197372</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>6.219206219141873</v>
-      </c>
-      <c r="C186">
         <v>-0.02504509830789259</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>6.73013016261762</v>
-      </c>
-      <c r="C187">
         <v>0.07077287003119825</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>6.981041735172879</v>
-      </c>
-      <c r="C188">
         <v>0.03245890654838535</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>7.078883505036679</v>
-      </c>
-      <c r="C189">
         <v>0.0122592730511113</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>7.138854148309283</v>
-      </c>
-      <c r="C190">
         <v>0.007423135045234508</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>7.207201277115221</v>
-      </c>
-      <c r="C191">
         <v>0.008397635288763139</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>7.352680476635998</v>
-      </c>
-      <c r="C192">
-        <v>0.01772579891837522</v>
+        <v>0.00960853864962119</v>
       </c>
     </row>
   </sheetData>
